--- a/files/eq_files/80001234.xlsx
+++ b/files/eq_files/80001234.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>дата</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>тести тести тести</t>
+  </si>
+  <si>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>iii</t>
+  </si>
+  <si>
+    <t>10/08/2018</t>
+  </si>
+  <si>
+    <t>test home</t>
   </si>
   <si>
     <t>crimper wire</t>
@@ -50059,6 +50071,34 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
         <v>6</v>
       </c>
     </row>
@@ -50072,7 +50112,7 @@
         <v>400001370</v>
       </c>
       <c r="B1998" s="13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C1998" s="13" t="n">
         <v>119000</v>
@@ -50083,7 +50123,7 @@
         <v>400001964</v>
       </c>
       <c r="B1999" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C1999" s="13" t="n">
         <v>120000</v>
